--- a/biology/Zoologie/Grive_de_Bicknell/Grive_de_Bicknell.xlsx
+++ b/biology/Zoologie/Grive_de_Bicknell/Grive_de_Bicknell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catharus bicknelli
 La Grive de Bicknell (Catharus bicknelli) niche dans le nord-est de l'Amérique du Nord - Québec, Nouveau-Brunswick, Nouvelle-Écosse, Vermont, New York (État), Maine (États-Unis) et New Hampshire - et hiverne dans les Grandes Antilles - République dominicaine, Haïti, Cuba, Jamaïque et Porto Rico.
-Jusqu'en 1995, la Grive de Bicknell était considérée comme une sous-espèce de la Grive à joues grises[1].
+Jusqu'en 1995, la Grive de Bicknell était considérée comme une sous-espèce de la Grive à joues grises.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire estivale de la Grive de Bicknell s'étend au nord-est de l'Amérique du Nord[1]. Cette espèce se retrouve dans une aire bornée par l'État de New York au sud à l'île du Cap-Breton et le sud-est du Québec au nord[1], plus particulièrement au sommet des monts Catskill, des montagnes Vertes, des montagnes Blanches, les monts Chic-Choc, les Laurentides et dans les hautes-terres du Maine, du nord-ouest du Nouveau-Brunswick et sur le plateau du Cap-Breton[1].
-L'aire hivernale est encore plus limitée[1]. Cet oiseau fréquente principalement les sommets de plus de 1 000 m de Cuba et de la République dominicaine[1]. De plus petites populations sont également présentes à Haïti, en Jamaïque et à Porto Rico[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire estivale de la Grive de Bicknell s'étend au nord-est de l'Amérique du Nord. Cette espèce se retrouve dans une aire bornée par l'État de New York au sud à l'île du Cap-Breton et le sud-est du Québec au nord, plus particulièrement au sommet des monts Catskill, des montagnes Vertes, des montagnes Blanches, les monts Chic-Choc, les Laurentides et dans les hautes-terres du Maine, du nord-ouest du Nouveau-Brunswick et sur le plateau du Cap-Breton.
+L'aire hivernale est encore plus limitée. Cet oiseau fréquente principalement les sommets de plus de 1 000 m de Cuba et de la République dominicaine. De plus petites populations sont également présentes à Haïti, en Jamaïque et à Porto Rico.
 </t>
         </is>
       </c>
